--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/152.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/152.xlsx
@@ -479,13 +479,13 @@
         <v>0.03364273858692074</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.799392592950289</v>
+        <v>-1.814947399969394</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424592849483854</v>
+        <v>0.005595069325056034</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08605649092852113</v>
+        <v>-0.08720070211810049</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03891778550757241</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.937472534959281</v>
+        <v>-1.950443717991682</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02260888260912766</v>
+        <v>-0.06865545402089905</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06671834595154721</v>
+        <v>-0.06918364532696286</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.04364766164875298</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.085102005004118</v>
+        <v>-2.104105303529558</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0470630422226643</v>
+        <v>-0.08887066493103668</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09218436396780888</v>
+        <v>-0.09253567827761576</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04548814647232115</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.111715283813343</v>
+        <v>-2.126098433212416</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05499750030647978</v>
+        <v>-0.09059003131878945</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0929284671934415</v>
+        <v>-0.09734429289309744</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04290861209378156</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.081242426961657</v>
+        <v>-2.087648423829541</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02931557037064931</v>
+        <v>-0.06514780020892097</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09540352529968513</v>
+        <v>-0.09021188049920566</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.03455368645882032</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.831669595163796</v>
+        <v>-1.813750125680938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09327726581435684</v>
+        <v>0.04964841996521476</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09970773551549617</v>
+        <v>-0.09449169388794677</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.02121654400684111</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.474085910720621</v>
+        <v>-1.444921333720559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1751261809512392</v>
+        <v>0.1412578956920963</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0785020134263197</v>
+        <v>-0.08376379910462518</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.004015490172237382</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.072376295076755</v>
+        <v>-1.034636843282292</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2467003723676238</v>
+        <v>0.2325642408426341</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06034528480020675</v>
+        <v>-0.06122844994013794</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01517314522995302</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5921107260297686</v>
+        <v>-0.5603338587711947</v>
       </c>
       <c r="F10" t="n">
-        <v>0.246012381844252</v>
+        <v>0.2288949580513178</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02680147734109381</v>
+        <v>-0.02146345157819481</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03361634455357116</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02681481958979772</v>
+        <v>0.05041204065250333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1699943083770811</v>
+        <v>0.1369762525413249</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05197587726768535</v>
+        <v>0.05991277503420783</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04717602671401776</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6237630934641012</v>
+        <v>0.6600869193678318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01110875224285848</v>
+        <v>-0.03874067458843704</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09787545779636045</v>
+        <v>0.102737745431396</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.05067944435812521</v>
       </c>
       <c r="E13" t="n">
-        <v>1.257656702411742</v>
+        <v>1.316819008056303</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1507550465559249</v>
+        <v>-0.1740521866456705</v>
       </c>
       <c r="G13" t="n">
-        <v>0.205903388220623</v>
+        <v>0.2103753266225397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.03906407718690642</v>
       </c>
       <c r="E14" t="n">
-        <v>1.892087651475597</v>
+        <v>1.97771563512561</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3673769137924721</v>
+        <v>-0.381394110785496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3186960189716413</v>
+        <v>0.3215803338519829</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.008268527044109401</v>
       </c>
       <c r="E15" t="n">
-        <v>2.556567562520799</v>
+        <v>2.67442741425424</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6554766049784778</v>
+        <v>-0.6461533575137069</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4591674599541633</v>
+        <v>0.4659497778796017</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.0448186664182575</v>
       </c>
       <c r="E16" t="n">
-        <v>3.115964850089755</v>
+        <v>3.230718985737195</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9901638672165304</v>
+        <v>-0.9793762002068874</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5944875109008712</v>
+        <v>0.6021377459493221</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1216855431467502</v>
       </c>
       <c r="E17" t="n">
-        <v>3.659740849285839</v>
+        <v>3.772152889534567</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.346191034092644</v>
+        <v>-1.336629917563941</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7127950444110455</v>
+        <v>0.7260278834137713</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2215856752350569</v>
       </c>
       <c r="E18" t="n">
-        <v>4.107551929202384</v>
+        <v>4.211865442705252</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.693412166237869</v>
+        <v>-1.667649116852031</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8786361359429029</v>
+        <v>0.893616397684512</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3425021752943955</v>
       </c>
       <c r="E19" t="n">
-        <v>4.501708287185403</v>
+        <v>4.58891474554684</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.068121203442776</v>
+        <v>-2.034243769373482</v>
       </c>
       <c r="G19" t="n">
-        <v>1.032214772268741</v>
+        <v>1.039939417639755</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4791490489756256</v>
       </c>
       <c r="E20" t="n">
-        <v>4.853373911302091</v>
+        <v>4.92864788154363</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.390653356513916</v>
+        <v>-2.390740575170691</v>
       </c>
       <c r="G20" t="n">
-        <v>1.154956429098873</v>
+        <v>1.155610873985024</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6237308508875578</v>
       </c>
       <c r="E21" t="n">
-        <v>5.082800453226287</v>
+        <v>5.148451095030095</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.717375054713639</v>
+        <v>-2.736999252488008</v>
       </c>
       <c r="G21" t="n">
-        <v>1.292233715497266</v>
+        <v>1.300675627584136</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.767758313026659</v>
       </c>
       <c r="E22" t="n">
-        <v>5.28901951340022</v>
+        <v>5.350475120789354</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.986092076713268</v>
+        <v>-3.017832348731237</v>
       </c>
       <c r="G22" t="n">
-        <v>1.443967951696617</v>
+        <v>1.444945044620768</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9032743013907151</v>
       </c>
       <c r="E23" t="n">
-        <v>5.397704938314017</v>
+        <v>5.454566623165884</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.213905988368142</v>
+        <v>-3.257924573529726</v>
       </c>
       <c r="G23" t="n">
-        <v>1.535701241320879</v>
+        <v>1.538339148247814</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.023937685403199</v>
       </c>
       <c r="E24" t="n">
-        <v>5.497269609427723</v>
+        <v>5.567122604694324</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.386128374980476</v>
+        <v>-3.420734664258485</v>
       </c>
       <c r="G24" t="n">
-        <v>1.630671989897319</v>
+        <v>1.623338913600777</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.124232406959628</v>
       </c>
       <c r="E25" t="n">
-        <v>5.531138504607543</v>
+        <v>5.589592082425723</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.476810466318363</v>
+        <v>-3.52180370472139</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659894509361672</v>
+        <v>1.646102983019045</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.200540315972691</v>
       </c>
       <c r="E26" t="n">
-        <v>5.518743696614669</v>
+        <v>5.55577076105869</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.495425245372713</v>
+        <v>-3.565290744013188</v>
       </c>
       <c r="G26" t="n">
-        <v>1.661492501534752</v>
+        <v>1.63994644370795</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.250255928520557</v>
       </c>
       <c r="E27" t="n">
-        <v>5.43749616326506</v>
+        <v>5.471167444145613</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.572157840912694</v>
+        <v>-3.631457378709524</v>
       </c>
       <c r="G27" t="n">
-        <v>1.665585679196408</v>
+        <v>1.649772875731038</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.273064877234513</v>
       </c>
       <c r="E28" t="n">
-        <v>5.349438255638882</v>
+        <v>5.377462890894102</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.582936054151848</v>
+        <v>-3.63753310353095</v>
       </c>
       <c r="G28" t="n">
-        <v>1.657516428643031</v>
+        <v>1.639130979763138</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.269849492164256</v>
       </c>
       <c r="E29" t="n">
-        <v>5.183312941071661</v>
+        <v>5.209133323001113</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.530241042403184</v>
+        <v>-3.586311050216633</v>
       </c>
       <c r="G29" t="n">
-        <v>1.620464357451263</v>
+        <v>1.604575923821976</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.242947443609245</v>
       </c>
       <c r="E30" t="n">
-        <v>5.066115463193167</v>
+        <v>5.075193522545885</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.439591886781843</v>
+        <v>-3.477416117550373</v>
       </c>
       <c r="G30" t="n">
-        <v>1.552802807176217</v>
+        <v>1.540454353154776</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.196769350908497</v>
       </c>
       <c r="E31" t="n">
-        <v>4.850196224576234</v>
+        <v>4.856378380555752</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.382722272961177</v>
+        <v>-3.415117904746312</v>
       </c>
       <c r="G31" t="n">
-        <v>1.471516238903297</v>
+        <v>1.467910387862362</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.136041446605996</v>
       </c>
       <c r="E32" t="n">
-        <v>4.655579075515403</v>
+        <v>4.661050063985833</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.276202066449835</v>
+        <v>-3.311928475050692</v>
       </c>
       <c r="G32" t="n">
-        <v>1.449099824270776</v>
+        <v>1.442163806334797</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.066325890805882</v>
       </c>
       <c r="E33" t="n">
-        <v>4.439885507548866</v>
+        <v>4.437334819278706</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.134381480930347</v>
+        <v>-3.171694598171763</v>
       </c>
       <c r="G33" t="n">
-        <v>1.362421557215402</v>
+        <v>1.361322480155902</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9922286161327996</v>
       </c>
       <c r="E34" t="n">
-        <v>4.177729402269016</v>
+        <v>4.172157166966246</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.974712481686841</v>
+        <v>-3.012750489652572</v>
       </c>
       <c r="G34" t="n">
-        <v>1.270497972339995</v>
+        <v>1.266619486756554</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9171822427367163</v>
       </c>
       <c r="E35" t="n">
-        <v>3.900927881699091</v>
+        <v>3.905873118546165</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.848206699400158</v>
+        <v>-2.882651969619505</v>
       </c>
       <c r="G35" t="n">
-        <v>1.175571747972958</v>
+        <v>1.174902055069888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8440479088294014</v>
       </c>
       <c r="E36" t="n">
-        <v>3.65427717986353</v>
+        <v>3.67168797550198</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.734254609442642</v>
+        <v>-2.747740565526218</v>
       </c>
       <c r="G36" t="n">
-        <v>1.112771875412271</v>
+        <v>1.12056117237502</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7741767541014632</v>
       </c>
       <c r="E37" t="n">
-        <v>3.327379214588227</v>
+        <v>3.340568139302227</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.618344064192087</v>
+        <v>-2.625204451964149</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9884090494233416</v>
+        <v>0.9909603476141787</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.708622071701295</v>
       </c>
       <c r="E38" t="n">
-        <v>3.033708507940805</v>
+        <v>3.04721337156536</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.509692794836188</v>
+        <v>-2.507014633144588</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9271516662541505</v>
+        <v>0.9403039957275455</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6480299673773576</v>
       </c>
       <c r="E39" t="n">
-        <v>2.759050248628973</v>
+        <v>2.764529775988877</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.401821004105173</v>
+        <v>-2.403416556595546</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8306677044786984</v>
+        <v>0.8350731615268496</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.592830754505857</v>
       </c>
       <c r="E40" t="n">
-        <v>2.493383439933761</v>
+        <v>2.495052182905343</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.318907167466689</v>
+        <v>-2.311285598690045</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7679520009714026</v>
+        <v>0.7620571176306327</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5424768708009822</v>
       </c>
       <c r="E41" t="n">
-        <v>2.173201921150807</v>
+        <v>2.168575062896996</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.238373241308875</v>
+        <v>-2.232371011928997</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6568018866028668</v>
+        <v>0.6695821644634455</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4959681519472527</v>
       </c>
       <c r="E42" t="n">
-        <v>1.93642522515112</v>
+        <v>1.936127583860867</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.14748652158394</v>
+        <v>-2.140463894911863</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6154242579716017</v>
+        <v>0.6190490165535155</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.451823158713281</v>
       </c>
       <c r="E43" t="n">
-        <v>1.676183660875582</v>
+        <v>1.664756796996707</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.053645346100837</v>
+        <v>-2.054183296137729</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5485147398909863</v>
+        <v>0.5572146484241206</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4079667868521678</v>
       </c>
       <c r="E44" t="n">
-        <v>1.493013503075959</v>
+        <v>1.482077625341866</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.938528917571409</v>
+        <v>-1.949519688166409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.479038675602615</v>
+        <v>0.4808672177915057</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3630707646665364</v>
       </c>
       <c r="E45" t="n">
-        <v>1.296112201080707</v>
+        <v>1.290227686391441</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.85495392691933</v>
+        <v>-1.871356523679115</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4253815139863814</v>
+        <v>0.4260469374447135</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3162113242563072</v>
       </c>
       <c r="E46" t="n">
-        <v>1.126129138233053</v>
+        <v>1.113431199663835</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.780087993610536</v>
+        <v>-1.788239583455273</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3251977733857757</v>
+        <v>0.3198426698439277</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2671565029344835</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9241850120824479</v>
+        <v>0.91268556764304</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.694685680610919</v>
+        <v>-1.70443648247009</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2698462521295359</v>
+        <v>0.2622216337495084</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2170480716826048</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7672530318758494</v>
+        <v>0.7597064833424456</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.601405632150425</v>
+        <v>-1.61968190522918</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1970272126119085</v>
+        <v>0.194118500904497</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1667069167890052</v>
       </c>
       <c r="E49" t="n">
-        <v>0.653649206624756</v>
+        <v>0.6455994735330352</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.477217243475045</v>
+        <v>-1.482053304520981</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1441361113656704</v>
+        <v>0.139392148341924</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.117724203933835</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5301360001385371</v>
+        <v>0.5164951242030668</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.361223749012453</v>
+        <v>-1.369768127773017</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1021052576896082</v>
+        <v>0.1009214016560403</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07127385116640354</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3894266900920834</v>
+        <v>0.3777345107188231</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.307607452081562</v>
+        <v>-1.320240739059044</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05598183627256659</v>
+        <v>0.05341833966819451</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.02836814358854723</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2899821733516962</v>
+        <v>0.2704104287555278</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.238293626693206</v>
+        <v>-1.248285957140369</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01285434521971142</v>
+        <v>-0.0002595592510485748</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01036285870990276</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1805190995750456</v>
+        <v>0.1657236437984912</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.172662502351054</v>
+        <v>-1.175951804560756</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03167901299304803</v>
+        <v>-0.04745766090052029</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04499897274865872</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07572374873754774</v>
+        <v>0.05385321311071587</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.076249291374105</v>
+        <v>-1.083589686718768</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1104996719698763</v>
+        <v>-0.1209378544317426</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07584334236990128</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.003069463808826878</v>
+        <v>-0.03603323670435242</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.072178070856811</v>
+        <v>-1.075913225081217</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1276164858421338</v>
+        <v>-0.1446344925647581</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1037952076602937</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.04943746341724449</v>
+        <v>-0.07969257858733191</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.034708813922148</v>
+        <v>-1.044618805077951</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1878254153679951</v>
+        <v>-0.1952560789728167</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1293458385830357</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1535594618276125</v>
+        <v>-0.1722321833462542</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.001442520370955</v>
+        <v>-1.018743530287591</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.219175948073522</v>
+        <v>-0.2370606520778053</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1535498604945042</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2492572358507362</v>
+        <v>-0.2643356948213017</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9805222411584971</v>
+        <v>-1.006238326652225</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2539456960928986</v>
+        <v>-0.264332645217918</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1774712472321253</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3596162831015298</v>
+        <v>-0.3698117171340504</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9687672399555317</v>
+        <v>-0.989818652113491</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2852681724472951</v>
+        <v>-0.3012114989374893</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2016498058444291</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4622031111685229</v>
+        <v>-0.4768479165379206</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9778556679597545</v>
+        <v>-0.9988784138459066</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3391888197958839</v>
+        <v>-0.3564538443925911</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.227206631970906</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5702578781025623</v>
+        <v>-0.5832132031973679</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9900504219706552</v>
+        <v>-1.015442029664354</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3725630693068609</v>
+        <v>-0.3868602198905121</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2547704377434678</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6383988260295321</v>
+        <v>-0.6517774360740008</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9897186251225043</v>
+        <v>-1.015701855872648</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3953984994443082</v>
+        <v>-0.4141084261242316</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2849734809883834</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7504662610958971</v>
+        <v>-0.7697251163848937</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.008957353029168</v>
+        <v>-1.041514308833303</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4514807056712921</v>
+        <v>-0.4729901682574891</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3181142621223144</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7786757023161716</v>
+        <v>-0.8042746830399643</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.039059378109392</v>
+        <v>-1.07965813803645</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4861955608297613</v>
+        <v>-0.513373016264978</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3543231132629575</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8548499154765899</v>
+        <v>-0.8869238141047401</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.08258026799875</v>
+        <v>-1.123871897814593</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4988995986057466</v>
+        <v>-0.5311583031989514</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3933331313006044</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8954724623100409</v>
+        <v>-0.9231829884167354</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.127273425428817</v>
+        <v>-1.169330505693979</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5242070372460538</v>
+        <v>-0.5537979487991626</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4344427017384824</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9303178404933342</v>
+        <v>-0.9616769120883356</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.186196642168093</v>
+        <v>-1.216588379569772</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5529739459648759</v>
+        <v>-0.5734044588739056</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4766359714855884</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9855022434841449</v>
+        <v>-1.003824870534333</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.201806951968783</v>
+        <v>-1.237633082600287</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5762418098621376</v>
+        <v>-0.6053295368569293</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5185822827233169</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9886103992528531</v>
+        <v>-1.007064159248542</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.239066396190645</v>
+        <v>-1.275373754236104</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.587510094365058</v>
+        <v>-0.6096483851689822</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5592115296459702</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.973407516464231</v>
+        <v>-0.9841988429979344</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.265347268231042</v>
+        <v>-1.296218403284645</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5951957048127602</v>
+        <v>-0.615536559382308</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5976375100593674</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9701523698124266</v>
+        <v>-0.9914373815895803</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.302138903293839</v>
+        <v>-1.332709957374482</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6039291589831157</v>
+        <v>-0.6336890185636836</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6328440500491257</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9730812089021708</v>
+        <v>-0.9852875514059296</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.362857116584785</v>
+        <v>-1.384146397806676</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6316659116789104</v>
+        <v>-0.656645212995127</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6639152339913476</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9146184822738391</v>
+        <v>-0.9275500204622514</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.437438216937537</v>
+        <v>-1.448308833159218</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6300837774434259</v>
+        <v>-0.6506686002836728</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6900395209303759</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8416329344114596</v>
+        <v>-0.8658101900377526</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.483271926033124</v>
+        <v>-1.494242569245791</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6438588359277808</v>
+        <v>-0.6640197638976878</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.710139747712162</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7089056562616076</v>
+        <v>-0.7284261675209293</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.521741452877654</v>
+        <v>-1.521749991767128</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6200957164409997</v>
+        <v>-0.6328241510440549</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7234477427670428</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5815883745145111</v>
+        <v>-0.600004319428242</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.524556236800846</v>
+        <v>-1.525754730930656</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6010918079948837</v>
+        <v>-0.6232270491954243</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7296319604053545</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4816223755955044</v>
+        <v>-0.5067443983500801</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.559629115396566</v>
+        <v>-1.5503162365833</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5577008312096734</v>
+        <v>-0.5701840777006759</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7285702043456561</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2985943293135634</v>
+        <v>-0.3297942116119336</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.591606036637114</v>
+        <v>-1.577740099971923</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5475584602760299</v>
+        <v>-0.568314670826443</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7199223276824348</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.114061608722085</v>
+        <v>-0.1532740189508943</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.617545353098532</v>
+        <v>-1.612737958324403</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4792064797949053</v>
+        <v>-0.4991533256072738</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7047369930224223</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05018758984346004</v>
+        <v>0.00711316188948195</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.640917513431517</v>
+        <v>-1.624589326994295</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4752011307107008</v>
+        <v>-0.4901496765771189</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6835942856689976</v>
       </c>
       <c r="E81" t="n">
-        <v>0.235261310075214</v>
+        <v>0.1861273201977439</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.625078483377047</v>
+        <v>-1.611694993967164</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4481285816318847</v>
+        <v>-0.456513771095817</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6581931009243804</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4135118476961874</v>
+        <v>0.3730966738928309</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.632082202508145</v>
+        <v>-1.619544063156235</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3790245689563298</v>
+        <v>-0.3910936793078204</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6304804068736624</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5937287695789966</v>
+        <v>0.559048679899102</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.613124648033462</v>
+        <v>-1.597422240210583</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3445109876211874</v>
+        <v>-0.3463212321897757</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6020773292070519</v>
       </c>
       <c r="E84" t="n">
-        <v>0.811325899977664</v>
+        <v>0.7608122695293899</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.584201599621392</v>
+        <v>-1.560753199203813</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2826619813955506</v>
+        <v>-0.2899822493578808</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5745073099122977</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9762502807323691</v>
+        <v>0.9295974481679101</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.496720676955418</v>
+        <v>-1.47562596042941</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2430598318542992</v>
+        <v>-0.2509631839836006</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5491107935494748</v>
       </c>
       <c r="E86" t="n">
-        <v>1.165936831042369</v>
+        <v>1.11753779558038</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.412906597398053</v>
+        <v>-1.394929185450904</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1723450186714526</v>
+        <v>-0.1760704141650298</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5265882810367332</v>
       </c>
       <c r="E87" t="n">
-        <v>1.321505028615759</v>
+        <v>1.268348611875135</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.257718380406278</v>
+        <v>-1.247751666627538</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.111154116856027</v>
+        <v>-0.1123367530482415</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5075346407333562</v>
       </c>
       <c r="E88" t="n">
-        <v>1.462513809714496</v>
+        <v>1.419571124626695</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.14375531187658</v>
+        <v>-1.131064692355483</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09620435114825533</v>
+        <v>-0.08987215468225698</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4916783857834649</v>
       </c>
       <c r="E89" t="n">
-        <v>1.545568538029309</v>
+        <v>1.497219516062813</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9468808463911044</v>
+        <v>-0.9328148557439407</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06912204333861131</v>
+        <v>-0.05921388194483911</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4794744166308397</v>
       </c>
       <c r="E90" t="n">
-        <v>1.679608975396199</v>
+        <v>1.639904969101931</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.788646075618972</v>
+        <v>-0.7642760850588266</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03941951630165764</v>
+        <v>-0.03748850743907328</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4700167860288904</v>
       </c>
       <c r="E91" t="n">
-        <v>1.695955459453724</v>
+        <v>1.669719111622729</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5765406709937442</v>
+        <v>-0.5709111031473596</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02825308855175419</v>
+        <v>-0.02876237231683882</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4624700776167571</v>
       </c>
       <c r="E92" t="n">
-        <v>1.771236138822706</v>
+        <v>1.744638108030401</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4129544562038243</v>
+        <v>-0.3914297456007085</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.003977635696504736</v>
+        <v>-0.005604294141391806</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4561495576642506</v>
       </c>
       <c r="E93" t="n">
-        <v>1.797090676310057</v>
+        <v>1.781400466900713</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2222737351907254</v>
+        <v>-0.2038169255916524</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02905208463829415</v>
+        <v>-0.03053114227940819</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4494432872261745</v>
       </c>
       <c r="E94" t="n">
-        <v>1.774191204501551</v>
+        <v>1.770875675702748</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09696980159757414</v>
+        <v>-0.08193220731235076</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07421000162404361</v>
+        <v>-0.07132629666437879</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4419587013310411</v>
       </c>
       <c r="E95" t="n">
-        <v>1.732481779022135</v>
+        <v>1.734374362882084</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01710122289190815</v>
+        <v>0.03063841231233129</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07916682696397508</v>
+        <v>-0.08486104640209495</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4324350022907866</v>
       </c>
       <c r="E96" t="n">
-        <v>1.686493150074655</v>
+        <v>1.683940632042464</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08433155924849307</v>
+        <v>0.100362714316139</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.102828699618416</v>
+        <v>-0.1044395001257076</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4203581799974972</v>
       </c>
       <c r="E97" t="n">
-        <v>1.583011568374872</v>
+        <v>1.582057042515761</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1353209278246307</v>
+        <v>0.1420934870192412</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1128496963373866</v>
+        <v>-0.1185414760927995</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4054429191881425</v>
       </c>
       <c r="E98" t="n">
-        <v>1.453389396390345</v>
+        <v>1.46294624347431</v>
       </c>
       <c r="F98" t="n">
-        <v>0.149460718873681</v>
+        <v>0.1509550245317137</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.124957841612189</v>
+        <v>-0.1328630235035206</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3883040860996127</v>
       </c>
       <c r="E99" t="n">
-        <v>1.327029690105742</v>
+        <v>1.343653078150511</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2079649201080314</v>
+        <v>0.213437128419815</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1500389996814226</v>
+        <v>-0.1529336832132689</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3700745323976836</v>
       </c>
       <c r="E100" t="n">
-        <v>1.156725199061443</v>
+        <v>1.16626862789052</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2401827600158941</v>
+        <v>0.2455829976878214</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1737667437689523</v>
+        <v>-0.1731970778568697</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3533082398870241</v>
       </c>
       <c r="E101" t="n">
-        <v>1.028115495400317</v>
+        <v>1.02771172791231</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2337389480660508</v>
+        <v>0.2378376150137978</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1895002575463453</v>
+        <v>-0.1926614764139304</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3383715757457535</v>
       </c>
       <c r="E102" t="n">
-        <v>0.86674939187376</v>
+        <v>0.8574578602841801</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2460251901784637</v>
+        <v>0.263585416382717</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2051508221117004</v>
+        <v>-0.2108151554366596</v>
       </c>
     </row>
   </sheetData>
